--- a/static/Models/Regression/Equation/Commodities.xlsx
+++ b/static/Models/Regression/Equation/Commodities.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.009188906289637089</v>
+        <v>-0.01284650526940823</v>
       </c>
       <c r="C2">
-        <v>-0.005448485724627972</v>
+        <v>-0.008728453889489174</v>
       </c>
       <c r="D2">
-        <v>0.1056546270847321</v>
+        <v>0.1076302826404572</v>
       </c>
       <c r="E2">
-        <v>-0.02051451243460178</v>
+        <v>-0.02583819441497326</v>
       </c>
       <c r="F2">
-        <v>0.005673555191606283</v>
+        <v>0.003095512976869941</v>
       </c>
       <c r="G2">
-        <v>-0.007931415922939777</v>
+        <v>-0.01010189764201641</v>
       </c>
       <c r="H2">
-        <v>0.001030514831654727</v>
+        <v>0.006783774588257074</v>
       </c>
       <c r="I2">
-        <v>0.01313428487628698</v>
+        <v>0.01320777088403702</v>
       </c>
       <c r="J2">
-        <v>0.1724521666765213</v>
+        <v>0.1734612733125687</v>
       </c>
       <c r="K2">
-        <v>0.00632809242233634</v>
+        <v>0.004824473988264799</v>
       </c>
       <c r="L2">
-        <v>0.0007093804888427258</v>
+        <v>0.0001186436420539394</v>
       </c>
       <c r="M2">
-        <v>-9.38034791033715E-05</v>
+        <v>-0.004305616021156311</v>
       </c>
       <c r="N2">
-        <v>-0.01187454350292683</v>
+        <v>-0.008561893366277218</v>
       </c>
       <c r="O2">
-        <v>-0.03902116417884827</v>
+        <v>-0.03988576680421829</v>
       </c>
       <c r="P2">
-        <v>0.05759153142571449</v>
+        <v>0.05065958574414253</v>
       </c>
       <c r="Q2">
-        <v>0.07184073328971863</v>
+        <v>0.06443439424037933</v>
       </c>
       <c r="R2">
-        <v>-0.003136803163215518</v>
+        <v>0.001795159070752561</v>
       </c>
       <c r="S2">
-        <v>-0.01896901428699493</v>
+        <v>-0.02068418823182583</v>
       </c>
       <c r="T2">
-        <v>-0.06213609501719475</v>
+        <v>-0.06081152334809303</v>
       </c>
       <c r="U2">
-        <v>-0.05832133069634438</v>
+        <v>-0.05697595700621605</v>
       </c>
       <c r="V2">
-        <v>-0.0051864143460989</v>
+        <v>-0.008634321391582489</v>
       </c>
       <c r="W2">
-        <v>0.07668357342481613</v>
+        <v>0.07779602706432343</v>
       </c>
       <c r="X2">
-        <v>-0.006542514078319073</v>
+        <v>-0.006329535972326994</v>
       </c>
       <c r="Y2">
-        <v>0.006772382650524378</v>
+        <v>0.001848692540079355</v>
       </c>
       <c r="Z2">
-        <v>-0.00854036957025528</v>
+        <v>-0.009139793924987316</v>
       </c>
       <c r="AA2">
-        <v>-0.01107914559543133</v>
+        <v>-0.01142903510481119</v>
       </c>
       <c r="AB2">
-        <v>0.03788375109434128</v>
+        <v>0.03926507756114006</v>
       </c>
       <c r="AC2">
-        <v>0.01291669253259897</v>
+        <v>0.01014473102986813</v>
       </c>
       <c r="AD2">
-        <v>0.04288996756076813</v>
+        <v>0.04392174258828163</v>
       </c>
       <c r="AE2">
-        <v>-0.08552127331495285</v>
+        <v>-0.08423014730215073</v>
       </c>
       <c r="AF2">
-        <v>0.0008284054347313941</v>
+        <v>0.001208656234666705</v>
       </c>
       <c r="AG2">
-        <v>0.0474371612071991</v>
+        <v>0.04540872946381569</v>
       </c>
       <c r="AH2">
-        <v>0.2044978886842728</v>
+        <v>0.2030296474695206</v>
       </c>
       <c r="AI2">
-        <v>-0.005102860741317272</v>
+        <v>-0.006157161202281713</v>
       </c>
       <c r="AJ2">
-        <v>0.009148021228611469</v>
+        <v>0.003178142011165619</v>
       </c>
       <c r="AK2">
-        <v>-8.316515595652163E-05</v>
+        <v>0.001252370071597397</v>
       </c>
       <c r="AL2">
-        <v>0.00398236932232976</v>
+        <v>0.003384806681424379</v>
       </c>
       <c r="AM2">
-        <v>0.1010643690824509</v>
+        <v>0.101753942668438</v>
       </c>
       <c r="AN2">
-        <v>0.09745536744594574</v>
+        <v>0.09905298799276352</v>
       </c>
       <c r="AO2">
-        <v>-0.009124656207859516</v>
+        <v>-0.00916678924113512</v>
       </c>
       <c r="AP2">
-        <v>0.006044527050107718</v>
+        <v>0.007624530699104071</v>
       </c>
       <c r="AQ2">
-        <v>-0.002468099584802985</v>
+        <v>-0.008740141056478024</v>
       </c>
       <c r="AR2">
-        <v>0.05887332558631897</v>
+        <v>0.06132450699806213</v>
       </c>
       <c r="AS2">
-        <v>0.06177268177270889</v>
+        <v>0.06428251415491104</v>
       </c>
       <c r="AT2">
-        <v>0.004782328847795725</v>
+        <v>0.0102947736158967</v>
       </c>
       <c r="AU2">
-        <v>0.01993420720100403</v>
+        <v>0.01940592564642429</v>
       </c>
       <c r="AV2">
-        <v>0.1317987442016602</v>
+        <v>0.1337815374135971</v>
       </c>
       <c r="AW2">
-        <v>0.01099344808608294</v>
+        <v>0.009621073491871357</v>
       </c>
       <c r="AX2">
-        <v>-0.009545040316879749</v>
+        <v>-0.01089455001056194</v>
       </c>
       <c r="AY2">
-        <v>-0.07670434564352036</v>
+        <v>-0.07840418070554733</v>
       </c>
       <c r="AZ2">
-        <v>-0.007143964059650898</v>
+        <v>-0.008839039131999016</v>
       </c>
       <c r="BA2">
-        <v>0.004974933806806803</v>
+        <v>0.004174050409346819</v>
       </c>
       <c r="BB2">
-        <v>0.03155887126922607</v>
+        <v>0.02920132502913475</v>
       </c>
       <c r="BC2">
-        <v>0.0096148531883955</v>
+        <v>0.004725355189293623</v>
       </c>
       <c r="BD2">
-        <v>-0.1480972766876221</v>
+        <v>-0.1471120119094849</v>
       </c>
       <c r="BE2">
-        <v>-0.002332847332581878</v>
+        <v>0.0004354974080342799</v>
       </c>
       <c r="BF2">
-        <v>-0.05393669754266739</v>
+        <v>-0.05717955157160759</v>
       </c>
       <c r="BG2">
-        <v>-0.06778434664011002</v>
+        <v>-0.06714100390672684</v>
       </c>
       <c r="BH2">
-        <v>-3.207497138646431E-05</v>
+        <v>0.002993849571794271</v>
       </c>
       <c r="BI2">
-        <v>0.1534165143966675</v>
+        <v>0.1543633192777634</v>
       </c>
       <c r="BJ2">
-        <v>0.02055345475673676</v>
+        <v>0.0209137462079525</v>
       </c>
       <c r="BK2">
-        <v>0.002932692179456353</v>
+        <v>0.00200731516815722</v>
       </c>
       <c r="BL2">
-        <v>0.01097375247627497</v>
+        <v>0.009715581312775612</v>
       </c>
       <c r="BM2">
-        <v>0.09866943210363388</v>
+        <v>0.1024345532059669</v>
       </c>
       <c r="BN2">
-        <v>0.01758189499378204</v>
+        <v>0.01805137470364571</v>
       </c>
       <c r="BO2">
-        <v>0.05515878647565842</v>
+        <v>0.05532556772232056</v>
       </c>
       <c r="BP2">
-        <v>0.08086322247982025</v>
+        <v>0.07806048542261124</v>
       </c>
       <c r="BQ2">
-        <v>-0.05695319175720215</v>
+        <v>-0.05659257993102074</v>
       </c>
       <c r="BR2">
-        <v>-0.002075785305351019</v>
+        <v>0.006019319873303175</v>
       </c>
       <c r="BS2">
-        <v>0.00179944175761193</v>
+        <v>0.00243857060559094</v>
       </c>
       <c r="BT2">
-        <v>0.007836581207811832</v>
+        <v>0.008399692364037037</v>
       </c>
       <c r="BU2">
-        <v>0.002366446424275637</v>
+        <v>0.004626527428627014</v>
       </c>
       <c r="BV2">
-        <v>0.1138361245393753</v>
+        <v>0.1109840422868729</v>
       </c>
       <c r="BW2">
-        <v>-0.006498232018202543</v>
+        <v>-0.01001143921166658</v>
       </c>
       <c r="BX2">
-        <v>0.03308137878775597</v>
+        <v>0.03368146345019341</v>
       </c>
       <c r="BY2">
-        <v>-0.001923892530612648</v>
+        <v>-0.002672962844371796</v>
       </c>
       <c r="BZ2">
-        <v>-0.02185867726802826</v>
+        <v>-0.02230208925902843</v>
       </c>
       <c r="CA2">
-        <v>0.02997978031635284</v>
+        <v>0.02911669947206974</v>
       </c>
       <c r="CB2">
-        <v>-0.1047461703419685</v>
+        <v>-0.1031765341758728</v>
       </c>
       <c r="CC2">
-        <v>-0.01000912580639124</v>
+        <v>-0.009307492524385452</v>
       </c>
       <c r="CD2">
-        <v>0.001738931983709335</v>
+        <v>0.00424952432513237</v>
       </c>
       <c r="CE2">
-        <v>0.1729746907949448</v>
+        <v>0.1745336800813675</v>
       </c>
       <c r="CF2">
-        <v>-0.07875297963619232</v>
+        <v>-0.07842148840427399</v>
       </c>
       <c r="CG2">
-        <v>0.115457184612751</v>
+        <v>0.1184248924255371</v>
       </c>
       <c r="CH2">
-        <v>-0.01228932291269302</v>
+        <v>-0.01145238429307938</v>
       </c>
       <c r="CI2">
-        <v>0.007272358052432537</v>
+        <v>0.008080986328423023</v>
       </c>
       <c r="CJ2">
-        <v>0.1143551766872406</v>
+        <v>0.1125212535262108</v>
       </c>
       <c r="CK2">
-        <v>0.01941495388746262</v>
+        <v>0.02097334153950214</v>
       </c>
       <c r="CL2">
-        <v>-0.002866799477487803</v>
+        <v>-0.001622263458557427</v>
       </c>
       <c r="CM2">
-        <v>0.01210371218621731</v>
+        <v>0.01210854481905699</v>
       </c>
       <c r="CN2">
-        <v>-0.001759801409207284</v>
+        <v>-0.001399232307448983</v>
       </c>
       <c r="CO2">
-        <v>-0.002296922029927373</v>
+        <v>-0.001628087600693107</v>
       </c>
       <c r="CP2">
-        <v>0.06006024777889252</v>
+        <v>0.0553976446390152</v>
       </c>
       <c r="CQ2">
-        <v>-0.01015684753656387</v>
+        <v>-0.01058603264391422</v>
       </c>
       <c r="CR2">
-        <v>0.007747865281999111</v>
+        <v>0.005255370866507292</v>
       </c>
       <c r="CS2">
-        <v>0.006576586980372667</v>
+        <v>0.008121992461383343</v>
       </c>
       <c r="CT2">
-        <v>0.00241492036730051</v>
+        <v>0.003341147443279624</v>
       </c>
       <c r="CU2">
-        <v>-0.0003237196360714734</v>
+        <v>0.001912750769406557</v>
       </c>
       <c r="CV2">
-        <v>0.01116215996444225</v>
+        <v>0.01011485140770674</v>
       </c>
       <c r="CW2">
-        <v>-0.09411604702472687</v>
+        <v>-0.09423929452896118</v>
       </c>
       <c r="CX2">
-        <v>0.009142057038843632</v>
+        <v>0.003339704824611545</v>
       </c>
       <c r="CY2">
-        <v>-0.0400133989751339</v>
+        <v>-0.04133674874901772</v>
       </c>
       <c r="CZ2">
-        <v>0.002936928067356348</v>
+        <v>0.00232294132001698</v>
       </c>
       <c r="DA2">
-        <v>-0.09916073828935623</v>
+        <v>-0.09752087295055389</v>
       </c>
       <c r="DB2">
-        <v>-0.01845194771885872</v>
+        <v>-0.0127604603767395</v>
       </c>
       <c r="DC2">
-        <v>0.005808825604617596</v>
+        <v>0.002291814191266894</v>
       </c>
       <c r="DD2">
-        <v>-0.007548837922513485</v>
+        <v>-0.007999270223081112</v>
       </c>
       <c r="DE2">
-        <v>0.003877467243000865</v>
+        <v>0.005096038337796926</v>
       </c>
       <c r="DF2">
-        <v>-0.002183428732678294</v>
+        <v>-0.004100142512470484</v>
       </c>
       <c r="DG2">
-        <v>0.005082742311060429</v>
+        <v>0.008313184604048729</v>
       </c>
       <c r="DH2">
-        <v>0.06168202310800552</v>
+        <v>0.06221957877278328</v>
       </c>
       <c r="DI2">
-        <v>0.01063308026641607</v>
+        <v>0.005367955192923546</v>
       </c>
       <c r="DJ2">
-        <v>-0.003847899381071329</v>
+        <v>-0.002534432336688042</v>
       </c>
       <c r="DK2">
-        <v>-0.08983548730611801</v>
+        <v>-0.09084898233413696</v>
       </c>
       <c r="DL2">
-        <v>-0.1126107424497604</v>
+        <v>-0.1095113158226013</v>
       </c>
       <c r="DM2">
-        <v>0.09561634808778763</v>
+        <v>0.09457822889089584</v>
       </c>
       <c r="DN2">
-        <v>0.0546225979924202</v>
+        <v>0.05508439987897873</v>
       </c>
       <c r="DO2">
-        <v>-0.01279686577618122</v>
+        <v>-0.01330665033310652</v>
       </c>
       <c r="DP2">
-        <v>-0.01160660665482283</v>
+        <v>-0.01481044292449951</v>
       </c>
       <c r="DQ2">
-        <v>0.003915669396519661</v>
+        <v>0.005158883519470692</v>
       </c>
       <c r="DR2">
-        <v>0.0045101223513484</v>
+        <v>0.006151393987238407</v>
       </c>
       <c r="DS2">
-        <v>0.04138874262571335</v>
+        <v>0.04035297781229019</v>
       </c>
       <c r="DT2">
-        <v>0.006579793523997068</v>
+        <v>0.003855390474200249</v>
       </c>
       <c r="DU2">
-        <v>0.09352833032608032</v>
+        <v>0.09790134429931641</v>
       </c>
       <c r="DV2">
-        <v>-0.001061063376255333</v>
+        <v>0.003400537883862853</v>
       </c>
       <c r="DW2">
-        <v>0.00318249175325036</v>
+        <v>0.001817130018025637</v>
       </c>
       <c r="DX2">
-        <v>0.05511790886521339</v>
+        <v>0.05605736747384071</v>
       </c>
       <c r="DY2">
-        <v>-0.006095833145081997</v>
+        <v>-0.007522759027779102</v>
       </c>
       <c r="DZ2">
-        <v>0.0008116245153360069</v>
+        <v>0.003564385930076241</v>
       </c>
       <c r="EA2">
-        <v>0.04977990314364433</v>
+        <v>0.04630035534501076</v>
       </c>
       <c r="EB2">
-        <v>0.1180031523108482</v>
+        <v>0.118190661072731</v>
       </c>
       <c r="EC2">
-        <v>0.001417829189449549</v>
+        <v>0.00322005245834589</v>
       </c>
       <c r="ED2">
-        <v>0.1145460158586502</v>
+        <v>0.1161193251609802</v>
       </c>
       <c r="EE2">
-        <v>-0.01374214515089989</v>
+        <v>-0.01287739723920822</v>
       </c>
       <c r="EF2">
-        <v>0.02842774800956249</v>
+        <v>0.02935027703642845</v>
       </c>
       <c r="EG2">
-        <v>0.007531132083386183</v>
+        <v>0.008498347364366055</v>
       </c>
       <c r="EH2">
-        <v>0.09402328729629517</v>
+        <v>0.09487885236740112</v>
       </c>
       <c r="EI2">
-        <v>-0.1688993722200394</v>
+        <v>-0.1708593964576721</v>
       </c>
       <c r="EJ2">
-        <v>-0.04155350103974342</v>
+        <v>-0.0407099574804306</v>
       </c>
       <c r="EK2">
-        <v>-0.006602996960282326</v>
+        <v>-0.006017846520990133</v>
       </c>
       <c r="EL2">
-        <v>-0.0009976552100852132</v>
+        <v>0.0006814080406911671</v>
       </c>
       <c r="EM2">
-        <v>0.08599114418029785</v>
+        <v>0.0796809047460556</v>
       </c>
       <c r="EN2">
-        <v>-0.1246861591935158</v>
+        <v>-0.1239396706223488</v>
       </c>
       <c r="EO2">
-        <v>0.04125550389289856</v>
+        <v>0.04235291481018066</v>
       </c>
       <c r="EP2">
-        <v>0.08041631430387497</v>
+        <v>0.0798494815826416</v>
       </c>
       <c r="EQ2">
-        <v>0.02218205481767654</v>
+        <v>0.02273407392203808</v>
       </c>
       <c r="ER2">
-        <v>8.93020405783318E-05</v>
+        <v>-0.0006938792648725212</v>
       </c>
       <c r="ES2">
-        <v>-0.003089049598202109</v>
+        <v>-0.002527695614844561</v>
       </c>
       <c r="ET2">
-        <v>0.05862002819776535</v>
+        <v>0.05017637833952904</v>
       </c>
       <c r="EU2">
-        <v>-0.01287685614079237</v>
+        <v>-0.009305508807301521</v>
       </c>
       <c r="EV2">
-        <v>-0.08447492867708206</v>
+        <v>-0.09086497873067856</v>
       </c>
       <c r="EW2">
-        <v>0.07243136316537857</v>
+        <v>0.0716637447476387</v>
       </c>
       <c r="EX2">
-        <v>0.07955397665500641</v>
+        <v>0.07763428241014481</v>
       </c>
       <c r="EY2">
-        <v>0.005808927584439516</v>
+        <v>0.007866734638810158</v>
       </c>
       <c r="EZ2">
-        <v>-0.06995834410190582</v>
+        <v>-0.0706634595990181</v>
       </c>
       <c r="FA2">
-        <v>0.005325949285179377</v>
+        <v>0.007030549459159374</v>
       </c>
       <c r="FB2">
-        <v>-0.002363094128668308</v>
+        <v>-0.001200491678901017</v>
       </c>
       <c r="FC2">
-        <v>-0.03517942875623703</v>
+        <v>-0.03454411402344704</v>
       </c>
       <c r="FD2">
-        <v>-0.004480482544749975</v>
+        <v>-0.005543122068047523</v>
       </c>
       <c r="FE2">
-        <v>0.06196919083595276</v>
+        <v>0.06227815896272659</v>
       </c>
       <c r="FF2">
-        <v>0.04055733978748322</v>
+        <v>0.04089512303471565</v>
       </c>
       <c r="FG2">
-        <v>0.06741917133331299</v>
+        <v>0.06774871051311493</v>
       </c>
       <c r="FH2">
-        <v>0.0008567367331124842</v>
+        <v>-0.000761690316721797</v>
       </c>
       <c r="FI2">
-        <v>0.05478425696492195</v>
+        <v>0.05448193475604057</v>
       </c>
       <c r="FJ2">
-        <v>-0.02431040070950985</v>
+        <v>-0.03161834925413132</v>
       </c>
       <c r="FK2">
-        <v>0.07277140021324158</v>
+        <v>0.07419615983963013</v>
       </c>
       <c r="FL2">
-        <v>-0.1019870117306709</v>
+        <v>-0.1060935258865356</v>
       </c>
       <c r="FM2">
-        <v>0.04076515883207321</v>
+        <v>0.03879024088382721</v>
       </c>
       <c r="FN2">
-        <v>0.0100208967924118</v>
+        <v>0.009131099097430706</v>
       </c>
       <c r="FO2">
-        <v>-0.008995090611279011</v>
+        <v>-0.01294121332466602</v>
       </c>
       <c r="FP2">
-        <v>0.001082906499505043</v>
+        <v>0.003899647621437907</v>
       </c>
       <c r="FQ2">
-        <v>-0.00357845495454967</v>
+        <v>-0.002392509486526251</v>
       </c>
       <c r="FR2">
-        <v>-0.0037186024710536</v>
+        <v>-0.002359442412853241</v>
       </c>
       <c r="FS2">
-        <v>0.006016056519001722</v>
+        <v>0.007423353847116232</v>
       </c>
       <c r="FT2">
-        <v>-0.003852307097986341</v>
+        <v>-0.003055489622056484</v>
       </c>
       <c r="FU2">
-        <v>-0.1240096539258957</v>
+        <v>-0.122693695127964</v>
       </c>
       <c r="FV2">
-        <v>-0.01705204322934151</v>
+        <v>-0.01531065162271261</v>
       </c>
       <c r="FW2">
-        <v>0.04029469192028046</v>
+        <v>0.04103082045912743</v>
       </c>
       <c r="FX2">
-        <v>0.00266961008310318</v>
+        <v>0.00027786786085926</v>
       </c>
       <c r="FY2">
-        <v>0.0007610238390043378</v>
+        <v>-0.00119706813711673</v>
       </c>
       <c r="FZ2">
-        <v>0.004299988970160484</v>
+        <v>0.005540818441659212</v>
       </c>
       <c r="GA2">
-        <v>0.02550729550421238</v>
+        <v>0.02358356863260269</v>
       </c>
       <c r="GB2">
-        <v>0.001135355560109019</v>
+        <v>0.004241110291332006</v>
       </c>
       <c r="GC2">
-        <v>-0.07684236764907837</v>
+        <v>-0.07768427580595016</v>
       </c>
       <c r="GD2">
-        <v>0.06558822095394135</v>
+        <v>0.0662100613117218</v>
       </c>
       <c r="GE2">
-        <v>0.005493931472301483</v>
+        <v>0.006886701099574566</v>
       </c>
       <c r="GF2">
-        <v>-0.02606351487338543</v>
+        <v>-0.02570569515228271</v>
       </c>
       <c r="GG2">
-        <v>0.02923275157809258</v>
+        <v>0.0309405867010355</v>
       </c>
       <c r="GH2">
-        <v>0.004198935814201832</v>
+        <v>0.001284865196794271</v>
       </c>
       <c r="GI2">
-        <v>0.08403355628252029</v>
+        <v>0.08364062756299973</v>
       </c>
       <c r="GJ2">
-        <v>-0.001705280039459467</v>
+        <v>-0.004589601885527372</v>
       </c>
       <c r="GK2">
-        <v>-0.06206334009766579</v>
+        <v>-0.06415040791034698</v>
       </c>
       <c r="GL2">
-        <v>-0.1140684708952904</v>
+        <v>-0.1209689155220985</v>
       </c>
       <c r="GM2">
-        <v>-0.06003385037183762</v>
+        <v>-0.05968529731035233</v>
       </c>
       <c r="GN2">
-        <v>-0.04236871749162674</v>
+        <v>-0.04177040606737137</v>
       </c>
       <c r="GO2">
-        <v>0.05494238436222076</v>
+        <v>0.04823256656527519</v>
       </c>
       <c r="GP2">
-        <v>-0.0720512866973877</v>
+        <v>-0.07055134326219559</v>
       </c>
       <c r="GQ2">
-        <v>-0.0152745870873332</v>
+        <v>-0.009512091986835003</v>
       </c>
       <c r="GR2">
-        <v>-0.007729495875537395</v>
+        <v>-0.009338993579149246</v>
       </c>
       <c r="GS2">
-        <v>-0.03436113521456718</v>
+        <v>-0.03567314147949219</v>
       </c>
       <c r="GT2">
-        <v>-0.005010704044252634</v>
+        <v>-0.001439148443751037</v>
       </c>
       <c r="GU2">
-        <v>0.01020346488803625</v>
+        <v>0.009019969962537289</v>
       </c>
       <c r="GV2">
-        <v>-0.004336112644523382</v>
+        <v>-0.0024495052639395</v>
       </c>
       <c r="GW2">
-        <v>-0.003329724306240678</v>
+        <v>-0.00363582419231534</v>
       </c>
       <c r="GX2">
-        <v>-0.005547158420085907</v>
+        <v>-0.004616901278495789</v>
       </c>
       <c r="GY2">
-        <v>-0.002953974297270179</v>
+        <v>-0.001967908116057515</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Commodities.xlsx
+++ b/static/Models/Regression/Equation/Commodities.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.01284650526940823</v>
+        <v>-0.01028662547469139</v>
       </c>
       <c r="C2">
-        <v>-0.008728453889489174</v>
+        <v>-0.004619455896317959</v>
       </c>
       <c r="D2">
-        <v>0.1076302826404572</v>
+        <v>0.1079859957098961</v>
       </c>
       <c r="E2">
-        <v>-0.02583819441497326</v>
+        <v>-0.03090542554855347</v>
       </c>
       <c r="F2">
-        <v>0.003095512976869941</v>
+        <v>0.002915396820753813</v>
       </c>
       <c r="G2">
-        <v>-0.01010189764201641</v>
+        <v>-0.01281095296144485</v>
       </c>
       <c r="H2">
-        <v>0.006783774588257074</v>
+        <v>0.007525469176471233</v>
       </c>
       <c r="I2">
-        <v>0.01320777088403702</v>
+        <v>0.01277287118136883</v>
       </c>
       <c r="J2">
-        <v>0.1734612733125687</v>
+        <v>0.1764055192470551</v>
       </c>
       <c r="K2">
-        <v>0.004824473988264799</v>
+        <v>0.01246878784149885</v>
       </c>
       <c r="L2">
-        <v>0.0001186436420539394</v>
+        <v>0.002120595192536712</v>
       </c>
       <c r="M2">
-        <v>-0.004305616021156311</v>
+        <v>0.0001070188372978009</v>
       </c>
       <c r="N2">
-        <v>-0.008561893366277218</v>
+        <v>-0.003467123489826918</v>
       </c>
       <c r="O2">
-        <v>-0.03988576680421829</v>
+        <v>-0.04108774662017822</v>
       </c>
       <c r="P2">
-        <v>0.05065958574414253</v>
+        <v>0.05415426194667816</v>
       </c>
       <c r="Q2">
-        <v>0.06443439424037933</v>
+        <v>0.06364186108112335</v>
       </c>
       <c r="R2">
-        <v>0.001795159070752561</v>
+        <v>0.008634044788777828</v>
       </c>
       <c r="S2">
-        <v>-0.02068418823182583</v>
+        <v>-0.01850178837776184</v>
       </c>
       <c r="T2">
-        <v>-0.06081152334809303</v>
+        <v>-0.06211012974381447</v>
       </c>
       <c r="U2">
-        <v>-0.05697595700621605</v>
+        <v>-0.05591649189591408</v>
       </c>
       <c r="V2">
-        <v>-0.008634321391582489</v>
+        <v>-0.008534178137779236</v>
       </c>
       <c r="W2">
-        <v>0.07779602706432343</v>
+        <v>0.0796077698469162</v>
       </c>
       <c r="X2">
-        <v>-0.006329535972326994</v>
+        <v>-0.006231440231204033</v>
       </c>
       <c r="Y2">
-        <v>0.001848692540079355</v>
+        <v>-0.0005795552278868854</v>
       </c>
       <c r="Z2">
-        <v>-0.009139793924987316</v>
+        <v>-0.01585056260228157</v>
       </c>
       <c r="AA2">
-        <v>-0.01142903510481119</v>
+        <v>-0.01076297275722027</v>
       </c>
       <c r="AB2">
-        <v>0.03926507756114006</v>
+        <v>0.04225560650229454</v>
       </c>
       <c r="AC2">
-        <v>0.01014473102986813</v>
+        <v>0.01175087969750166</v>
       </c>
       <c r="AD2">
-        <v>0.04392174258828163</v>
+        <v>0.04283705726265907</v>
       </c>
       <c r="AE2">
-        <v>-0.08423014730215073</v>
+        <v>-0.07669122517108917</v>
       </c>
       <c r="AF2">
-        <v>0.001208656234666705</v>
+        <v>0.001495189382694662</v>
       </c>
       <c r="AG2">
-        <v>0.04540872946381569</v>
+        <v>0.04700063541531563</v>
       </c>
       <c r="AH2">
-        <v>0.2030296474695206</v>
+        <v>0.2076571136713028</v>
       </c>
       <c r="AI2">
-        <v>-0.006157161202281713</v>
+        <v>-0.005532046779990196</v>
       </c>
       <c r="AJ2">
-        <v>0.003178142011165619</v>
+        <v>0.007182934321463108</v>
       </c>
       <c r="AK2">
-        <v>0.001252370071597397</v>
+        <v>0.002145607257261872</v>
       </c>
       <c r="AL2">
-        <v>0.003384806681424379</v>
+        <v>0.002154610818251967</v>
       </c>
       <c r="AM2">
-        <v>0.101753942668438</v>
+        <v>0.1053559109568596</v>
       </c>
       <c r="AN2">
-        <v>0.09905298799276352</v>
+        <v>0.09979467839002609</v>
       </c>
       <c r="AO2">
-        <v>-0.00916678924113512</v>
+        <v>-0.007322484161704779</v>
       </c>
       <c r="AP2">
-        <v>0.007624530699104071</v>
+        <v>0.01011911872774363</v>
       </c>
       <c r="AQ2">
-        <v>-0.008740141056478024</v>
+        <v>-0.00859235692769289</v>
       </c>
       <c r="AR2">
-        <v>0.06132450699806213</v>
+        <v>0.06160061433911324</v>
       </c>
       <c r="AS2">
-        <v>0.06428251415491104</v>
+        <v>0.0635121762752533</v>
       </c>
       <c r="AT2">
-        <v>0.0102947736158967</v>
+        <v>0.009721320122480392</v>
       </c>
       <c r="AU2">
-        <v>0.01940592564642429</v>
+        <v>0.01808926835656166</v>
       </c>
       <c r="AV2">
-        <v>0.1337815374135971</v>
+        <v>0.1358641237020493</v>
       </c>
       <c r="AW2">
-        <v>0.009621073491871357</v>
+        <v>0.008613185025751591</v>
       </c>
       <c r="AX2">
-        <v>-0.01089455001056194</v>
+        <v>-0.004144493490457535</v>
       </c>
       <c r="AY2">
-        <v>-0.07840418070554733</v>
+        <v>-0.07141882181167603</v>
       </c>
       <c r="AZ2">
-        <v>-0.008839039131999016</v>
+        <v>-0.005663711577653885</v>
       </c>
       <c r="BA2">
-        <v>0.004174050409346819</v>
+        <v>0.002080766949802637</v>
       </c>
       <c r="BB2">
-        <v>0.02920132502913475</v>
+        <v>0.03208980709314346</v>
       </c>
       <c r="BC2">
-        <v>0.004725355189293623</v>
+        <v>0.003780256025493145</v>
       </c>
       <c r="BD2">
-        <v>-0.1471120119094849</v>
+        <v>-0.1484357565641403</v>
       </c>
       <c r="BE2">
-        <v>0.0004354974080342799</v>
+        <v>0.0004197360249236226</v>
       </c>
       <c r="BF2">
-        <v>-0.05717955157160759</v>
+        <v>-0.05343738198280334</v>
       </c>
       <c r="BG2">
-        <v>-0.06714100390672684</v>
+        <v>-0.06859740614891052</v>
       </c>
       <c r="BH2">
-        <v>0.002993849571794271</v>
+        <v>0.005244062747806311</v>
       </c>
       <c r="BI2">
-        <v>0.1543633192777634</v>
+        <v>0.1541856527328491</v>
       </c>
       <c r="BJ2">
-        <v>0.0209137462079525</v>
+        <v>0.02423818036913872</v>
       </c>
       <c r="BK2">
-        <v>0.00200731516815722</v>
+        <v>0.006676963530480862</v>
       </c>
       <c r="BL2">
-        <v>0.009715581312775612</v>
+        <v>0.01323574967682362</v>
       </c>
       <c r="BM2">
-        <v>0.1024345532059669</v>
+        <v>0.1024413630366325</v>
       </c>
       <c r="BN2">
-        <v>0.01805137470364571</v>
+        <v>0.02209275960922241</v>
       </c>
       <c r="BO2">
-        <v>0.05532556772232056</v>
+        <v>0.05314033478498459</v>
       </c>
       <c r="BP2">
-        <v>0.07806048542261124</v>
+        <v>0.07739352434873581</v>
       </c>
       <c r="BQ2">
-        <v>-0.05659257993102074</v>
+        <v>-0.055467888712883</v>
       </c>
       <c r="BR2">
-        <v>0.006019319873303175</v>
+        <v>0.00431867828592658</v>
       </c>
       <c r="BS2">
-        <v>0.00243857060559094</v>
+        <v>0.005509810987859964</v>
       </c>
       <c r="BT2">
-        <v>0.008399692364037037</v>
+        <v>0.008307085372507572</v>
       </c>
       <c r="BU2">
-        <v>0.004626527428627014</v>
+        <v>0.003599683521315455</v>
       </c>
       <c r="BV2">
-        <v>0.1109840422868729</v>
+        <v>0.1060076504945755</v>
       </c>
       <c r="BW2">
-        <v>-0.01001143921166658</v>
+        <v>-0.01336353644728661</v>
       </c>
       <c r="BX2">
-        <v>0.03368146345019341</v>
+        <v>0.03720231354236603</v>
       </c>
       <c r="BY2">
-        <v>-0.002672962844371796</v>
+        <v>-0.00499061169102788</v>
       </c>
       <c r="BZ2">
-        <v>-0.02230208925902843</v>
+        <v>-0.01869972608983517</v>
       </c>
       <c r="CA2">
-        <v>0.02911669947206974</v>
+        <v>0.02766425721347332</v>
       </c>
       <c r="CB2">
-        <v>-0.1031765341758728</v>
+        <v>-0.1024100556969643</v>
       </c>
       <c r="CC2">
-        <v>-0.009307492524385452</v>
+        <v>-0.009499029256403446</v>
       </c>
       <c r="CD2">
-        <v>0.00424952432513237</v>
+        <v>0.003720544744282961</v>
       </c>
       <c r="CE2">
-        <v>0.1745336800813675</v>
+        <v>0.1761762350797653</v>
       </c>
       <c r="CF2">
-        <v>-0.07842148840427399</v>
+        <v>-0.07764986902475357</v>
       </c>
       <c r="CG2">
-        <v>0.1184248924255371</v>
+        <v>0.1166107580065727</v>
       </c>
       <c r="CH2">
-        <v>-0.01145238429307938</v>
+        <v>-0.01097303256392479</v>
       </c>
       <c r="CI2">
-        <v>0.008080986328423023</v>
+        <v>0.0057049710303545</v>
       </c>
       <c r="CJ2">
-        <v>0.1125212535262108</v>
+        <v>0.1117712035775185</v>
       </c>
       <c r="CK2">
-        <v>0.02097334153950214</v>
+        <v>0.01815375126898289</v>
       </c>
       <c r="CL2">
-        <v>-0.001622263458557427</v>
+        <v>-0.001612536492757499</v>
       </c>
       <c r="CM2">
-        <v>0.01210854481905699</v>
+        <v>0.01377790607511997</v>
       </c>
       <c r="CN2">
-        <v>-0.001399232307448983</v>
+        <v>0.006688174791634083</v>
       </c>
       <c r="CO2">
-        <v>-0.001628087600693107</v>
+        <v>-0.002303307875990868</v>
       </c>
       <c r="CP2">
-        <v>0.0553976446390152</v>
+        <v>0.05259453877806664</v>
       </c>
       <c r="CQ2">
-        <v>-0.01058603264391422</v>
+        <v>-0.01360664609819651</v>
       </c>
       <c r="CR2">
-        <v>0.005255370866507292</v>
+        <v>0.00419406546279788</v>
       </c>
       <c r="CS2">
-        <v>0.008121992461383343</v>
+        <v>0.006160104181617498</v>
       </c>
       <c r="CT2">
-        <v>0.003341147443279624</v>
+        <v>0.003349981037899852</v>
       </c>
       <c r="CU2">
-        <v>0.001912750769406557</v>
+        <v>0.007314289920032024</v>
       </c>
       <c r="CV2">
-        <v>0.01011485140770674</v>
+        <v>0.005952898878604174</v>
       </c>
       <c r="CW2">
-        <v>-0.09423929452896118</v>
+        <v>-0.0944499745965004</v>
       </c>
       <c r="CX2">
-        <v>0.003339704824611545</v>
+        <v>0.002780698938295245</v>
       </c>
       <c r="CY2">
-        <v>-0.04133674874901772</v>
+        <v>-0.04233138635754585</v>
       </c>
       <c r="CZ2">
-        <v>0.00232294132001698</v>
+        <v>0.002665668493136764</v>
       </c>
       <c r="DA2">
-        <v>-0.09752087295055389</v>
+        <v>-0.09767445921897888</v>
       </c>
       <c r="DB2">
-        <v>-0.0127604603767395</v>
+        <v>-0.007724841590970755</v>
       </c>
       <c r="DC2">
-        <v>0.002291814191266894</v>
+        <v>0.01090333145111799</v>
       </c>
       <c r="DD2">
-        <v>-0.007999270223081112</v>
+        <v>-0.003377922577783465</v>
       </c>
       <c r="DE2">
-        <v>0.005096038337796926</v>
+        <v>0.002914071083068848</v>
       </c>
       <c r="DF2">
-        <v>-0.004100142512470484</v>
+        <v>-0.0003663722018245608</v>
       </c>
       <c r="DG2">
-        <v>0.008313184604048729</v>
+        <v>0.007384227123111486</v>
       </c>
       <c r="DH2">
-        <v>0.06221957877278328</v>
+        <v>0.05560445412993431</v>
       </c>
       <c r="DI2">
-        <v>0.005367955192923546</v>
+        <v>0.004041386302560568</v>
       </c>
       <c r="DJ2">
-        <v>-0.002534432336688042</v>
+        <v>-0.004361169412732124</v>
       </c>
       <c r="DK2">
-        <v>-0.09084898233413696</v>
+        <v>-0.09650449454784393</v>
       </c>
       <c r="DL2">
-        <v>-0.1095113158226013</v>
+        <v>-0.1113286763429642</v>
       </c>
       <c r="DM2">
-        <v>0.09457822889089584</v>
+        <v>0.09499765932559967</v>
       </c>
       <c r="DN2">
-        <v>0.05508439987897873</v>
+        <v>0.05366383492946625</v>
       </c>
       <c r="DO2">
-        <v>-0.01330665033310652</v>
+        <v>-0.005810599308460951</v>
       </c>
       <c r="DP2">
-        <v>-0.01481044292449951</v>
+        <v>-0.01270167622715235</v>
       </c>
       <c r="DQ2">
-        <v>0.005158883519470692</v>
+        <v>0.003562428755685687</v>
       </c>
       <c r="DR2">
-        <v>0.006151393987238407</v>
+        <v>0.009017747826874256</v>
       </c>
       <c r="DS2">
-        <v>0.04035297781229019</v>
+        <v>0.03482365608215332</v>
       </c>
       <c r="DT2">
-        <v>0.003855390474200249</v>
+        <v>0.003250106237828732</v>
       </c>
       <c r="DU2">
-        <v>0.09790134429931641</v>
+        <v>0.09722276777029037</v>
       </c>
       <c r="DV2">
-        <v>0.003400537883862853</v>
+        <v>0.004642147105187178</v>
       </c>
       <c r="DW2">
-        <v>0.001817130018025637</v>
+        <v>-0.0002318298647878692</v>
       </c>
       <c r="DX2">
-        <v>0.05605736747384071</v>
+        <v>0.05502116307616234</v>
       </c>
       <c r="DY2">
-        <v>-0.007522759027779102</v>
+        <v>-0.00754478806629777</v>
       </c>
       <c r="DZ2">
-        <v>0.003564385930076241</v>
+        <v>0.007211455143988132</v>
       </c>
       <c r="EA2">
-        <v>0.04630035534501076</v>
+        <v>0.04511520266532898</v>
       </c>
       <c r="EB2">
-        <v>0.118190661072731</v>
+        <v>0.1157191172242165</v>
       </c>
       <c r="EC2">
-        <v>0.00322005245834589</v>
+        <v>-0.0005703864735551178</v>
       </c>
       <c r="ED2">
-        <v>0.1161193251609802</v>
+        <v>0.1153832226991653</v>
       </c>
       <c r="EE2">
-        <v>-0.01287739723920822</v>
+        <v>-0.01468263287097216</v>
       </c>
       <c r="EF2">
-        <v>0.02935027703642845</v>
+        <v>0.03181372582912445</v>
       </c>
       <c r="EG2">
-        <v>0.008498347364366055</v>
+        <v>0.01078277267515659</v>
       </c>
       <c r="EH2">
-        <v>0.09487885236740112</v>
+        <v>0.09641347825527191</v>
       </c>
       <c r="EI2">
-        <v>-0.1708593964576721</v>
+        <v>-0.1673729866743088</v>
       </c>
       <c r="EJ2">
-        <v>-0.0407099574804306</v>
+        <v>-0.04491445794701576</v>
       </c>
       <c r="EK2">
-        <v>-0.006017846520990133</v>
+        <v>-0.006535344291478395</v>
       </c>
       <c r="EL2">
-        <v>0.0006814080406911671</v>
+        <v>0.0003084491763729602</v>
       </c>
       <c r="EM2">
-        <v>0.0796809047460556</v>
+        <v>0.07411407679319382</v>
       </c>
       <c r="EN2">
-        <v>-0.1239396706223488</v>
+        <v>-0.1212823167443275</v>
       </c>
       <c r="EO2">
-        <v>0.04235291481018066</v>
+        <v>0.04076547175645828</v>
       </c>
       <c r="EP2">
-        <v>0.0798494815826416</v>
+        <v>0.07765535265207291</v>
       </c>
       <c r="EQ2">
-        <v>0.02273407392203808</v>
+        <v>0.02133948355913162</v>
       </c>
       <c r="ER2">
-        <v>-0.0006938792648725212</v>
+        <v>0.0004336701240390539</v>
       </c>
       <c r="ES2">
-        <v>-0.002527695614844561</v>
+        <v>-0.0007505927351303399</v>
       </c>
       <c r="ET2">
-        <v>0.05017637833952904</v>
+        <v>0.05067460238933563</v>
       </c>
       <c r="EU2">
-        <v>-0.009305508807301521</v>
+        <v>-0.01098519098013639</v>
       </c>
       <c r="EV2">
-        <v>-0.09086497873067856</v>
+        <v>-0.08599552512168884</v>
       </c>
       <c r="EW2">
-        <v>0.0716637447476387</v>
+        <v>0.07216094434261322</v>
       </c>
       <c r="EX2">
-        <v>0.07763428241014481</v>
+        <v>0.07885153591632843</v>
       </c>
       <c r="EY2">
-        <v>0.007866734638810158</v>
+        <v>0.00742271775379777</v>
       </c>
       <c r="EZ2">
-        <v>-0.0706634595990181</v>
+        <v>-0.07028208673000336</v>
       </c>
       <c r="FA2">
-        <v>0.007030549459159374</v>
+        <v>0.004884852096438408</v>
       </c>
       <c r="FB2">
-        <v>-0.001200491678901017</v>
+        <v>-0.003464927431195974</v>
       </c>
       <c r="FC2">
-        <v>-0.03454411402344704</v>
+        <v>-0.04241158440709114</v>
       </c>
       <c r="FD2">
-        <v>-0.005543122068047523</v>
+        <v>-0.005767334718257189</v>
       </c>
       <c r="FE2">
-        <v>0.06227815896272659</v>
+        <v>0.05687607079744339</v>
       </c>
       <c r="FF2">
-        <v>0.04089512303471565</v>
+        <v>0.04392120242118835</v>
       </c>
       <c r="FG2">
-        <v>0.06774871051311493</v>
+        <v>0.06861584633588791</v>
       </c>
       <c r="FH2">
-        <v>-0.000761690316721797</v>
+        <v>-0.003059285692870617</v>
       </c>
       <c r="FI2">
-        <v>0.05448193475604057</v>
+        <v>0.05578974634408951</v>
       </c>
       <c r="FJ2">
-        <v>-0.03161834925413132</v>
+        <v>-0.03051191568374634</v>
       </c>
       <c r="FK2">
-        <v>0.07419615983963013</v>
+        <v>0.07106313854455948</v>
       </c>
       <c r="FL2">
-        <v>-0.1060935258865356</v>
+        <v>-0.1077906414866447</v>
       </c>
       <c r="FM2">
-        <v>0.03879024088382721</v>
+        <v>0.03029164858162403</v>
       </c>
       <c r="FN2">
-        <v>0.009131099097430706</v>
+        <v>0.0137922428548336</v>
       </c>
       <c r="FO2">
-        <v>-0.01294121332466602</v>
+        <v>-0.007841859012842178</v>
       </c>
       <c r="FP2">
-        <v>0.003899647621437907</v>
+        <v>-0.001306251971982419</v>
       </c>
       <c r="FQ2">
-        <v>-0.002392509486526251</v>
+        <v>-0.00306481309235096</v>
       </c>
       <c r="FR2">
-        <v>-0.002359442412853241</v>
+        <v>-0.004171793814748526</v>
       </c>
       <c r="FS2">
-        <v>0.007423353847116232</v>
+        <v>0.007277903612703085</v>
       </c>
       <c r="FT2">
-        <v>-0.003055489622056484</v>
+        <v>-0.003734888276085258</v>
       </c>
       <c r="FU2">
-        <v>-0.122693695127964</v>
+        <v>-0.1230586245656013</v>
       </c>
       <c r="FV2">
-        <v>-0.01531065162271261</v>
+        <v>-0.01703011058270931</v>
       </c>
       <c r="FW2">
-        <v>0.04103082045912743</v>
+        <v>0.04098189994692802</v>
       </c>
       <c r="FX2">
-        <v>0.00027786786085926</v>
+        <v>-0.0009694707696326077</v>
       </c>
       <c r="FY2">
-        <v>-0.00119706813711673</v>
+        <v>-0.006921144668012857</v>
       </c>
       <c r="FZ2">
-        <v>0.005540818441659212</v>
+        <v>0.001951190759427845</v>
       </c>
       <c r="GA2">
-        <v>0.02358356863260269</v>
+        <v>0.02504759840667248</v>
       </c>
       <c r="GB2">
-        <v>0.004241110291332006</v>
+        <v>0.003234351752325892</v>
       </c>
       <c r="GC2">
-        <v>-0.07768427580595016</v>
+        <v>-0.07718301564455032</v>
       </c>
       <c r="GD2">
-        <v>0.0662100613117218</v>
+        <v>0.06377410888671875</v>
       </c>
       <c r="GE2">
-        <v>0.006886701099574566</v>
+        <v>0.006297524552792311</v>
       </c>
       <c r="GF2">
-        <v>-0.02570569515228271</v>
+        <v>-0.02375567145645618</v>
       </c>
       <c r="GG2">
-        <v>0.0309405867010355</v>
+        <v>0.03483399376273155</v>
       </c>
       <c r="GH2">
-        <v>0.001284865196794271</v>
+        <v>-0.007848098874092102</v>
       </c>
       <c r="GI2">
-        <v>0.08364062756299973</v>
+        <v>0.08709649741649628</v>
       </c>
       <c r="GJ2">
-        <v>-0.004589601885527372</v>
+        <v>-0.006738157477229834</v>
       </c>
       <c r="GK2">
-        <v>-0.06415040791034698</v>
+        <v>-0.06445404887199402</v>
       </c>
       <c r="GL2">
-        <v>-0.1209689155220985</v>
+        <v>-0.1253485083580017</v>
       </c>
       <c r="GM2">
-        <v>-0.05968529731035233</v>
+        <v>-0.06512610614299774</v>
       </c>
       <c r="GN2">
-        <v>-0.04177040606737137</v>
+        <v>-0.04036685451865196</v>
       </c>
       <c r="GO2">
-        <v>0.04823256656527519</v>
+        <v>0.04690654575824738</v>
       </c>
       <c r="GP2">
-        <v>-0.07055134326219559</v>
+        <v>-0.07069807499647141</v>
       </c>
       <c r="GQ2">
-        <v>-0.009512091986835003</v>
+        <v>-0.01019115932285786</v>
       </c>
       <c r="GR2">
-        <v>-0.009338993579149246</v>
+        <v>-0.01504069473594427</v>
       </c>
       <c r="GS2">
-        <v>-0.03567314147949219</v>
+        <v>-0.02778343856334686</v>
       </c>
       <c r="GT2">
-        <v>-0.001439148443751037</v>
+        <v>0.00213833968155086</v>
       </c>
       <c r="GU2">
-        <v>0.009019969962537289</v>
+        <v>0.009008707478642464</v>
       </c>
       <c r="GV2">
-        <v>-0.0024495052639395</v>
+        <v>0.002484450116753578</v>
       </c>
       <c r="GW2">
-        <v>-0.00363582419231534</v>
+        <v>-0.00167633150704205</v>
       </c>
       <c r="GX2">
-        <v>-0.004616901278495789</v>
+        <v>-0.006206993013620377</v>
       </c>
       <c r="GY2">
-        <v>-0.001967908116057515</v>
+        <v>-0.003481804393231869</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Commodities.xlsx
+++ b/static/Models/Regression/Equation/Commodities.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.01028662547469139</v>
+        <v>-0.01401362661272287</v>
       </c>
       <c r="C2">
-        <v>-0.004619455896317959</v>
+        <v>-0.005026414524763823</v>
       </c>
       <c r="D2">
-        <v>0.1079859957098961</v>
+        <v>0.1049922257661819</v>
       </c>
       <c r="E2">
-        <v>-0.03090542554855347</v>
+        <v>-0.03257399797439575</v>
       </c>
       <c r="F2">
-        <v>0.002915396820753813</v>
+        <v>0.00288985320366919</v>
       </c>
       <c r="G2">
-        <v>-0.01281095296144485</v>
+        <v>-0.0120618985965848</v>
       </c>
       <c r="H2">
-        <v>0.007525469176471233</v>
+        <v>0.00358640355989337</v>
       </c>
       <c r="I2">
-        <v>0.01277287118136883</v>
+        <v>0.0118287717923522</v>
       </c>
       <c r="J2">
-        <v>0.1764055192470551</v>
+        <v>0.1725821048021317</v>
       </c>
       <c r="K2">
-        <v>0.01246878784149885</v>
+        <v>0.007373162545263767</v>
       </c>
       <c r="L2">
-        <v>0.002120595192536712</v>
+        <v>0.004155655391514301</v>
       </c>
       <c r="M2">
-        <v>0.0001070188372978009</v>
+        <v>0.002774802269414067</v>
       </c>
       <c r="N2">
-        <v>-0.003467123489826918</v>
+        <v>-0.007353496737778187</v>
       </c>
       <c r="O2">
-        <v>-0.04108774662017822</v>
+        <v>-0.02882365323603153</v>
       </c>
       <c r="P2">
-        <v>0.05415426194667816</v>
+        <v>0.05147061869502068</v>
       </c>
       <c r="Q2">
-        <v>0.06364186108112335</v>
+        <v>0.06574580073356628</v>
       </c>
       <c r="R2">
-        <v>0.008634044788777828</v>
+        <v>0.004096383228898048</v>
       </c>
       <c r="S2">
-        <v>-0.01850178837776184</v>
+        <v>-0.02094568684697151</v>
       </c>
       <c r="T2">
-        <v>-0.06211012974381447</v>
+        <v>-0.06106569990515709</v>
       </c>
       <c r="U2">
-        <v>-0.05591649189591408</v>
+        <v>-0.0583077073097229</v>
       </c>
       <c r="V2">
-        <v>-0.008534178137779236</v>
+        <v>-0.004054451826959848</v>
       </c>
       <c r="W2">
-        <v>0.0796077698469162</v>
+        <v>0.08315931260585785</v>
       </c>
       <c r="X2">
-        <v>-0.006231440231204033</v>
+        <v>-0.004693662282079458</v>
       </c>
       <c r="Y2">
-        <v>-0.0005795552278868854</v>
+        <v>0.003086111042648554</v>
       </c>
       <c r="Z2">
-        <v>-0.01585056260228157</v>
+        <v>-0.01351933460682631</v>
       </c>
       <c r="AA2">
-        <v>-0.01076297275722027</v>
+        <v>-0.01364754233509302</v>
       </c>
       <c r="AB2">
-        <v>0.04225560650229454</v>
+        <v>0.03539445996284485</v>
       </c>
       <c r="AC2">
-        <v>0.01175087969750166</v>
+        <v>0.01496797520667315</v>
       </c>
       <c r="AD2">
-        <v>0.04283705726265907</v>
+        <v>0.04425903037190437</v>
       </c>
       <c r="AE2">
-        <v>-0.07669122517108917</v>
+        <v>-0.08038180321455002</v>
       </c>
       <c r="AF2">
-        <v>0.001495189382694662</v>
+        <v>0.006615876685827971</v>
       </c>
       <c r="AG2">
-        <v>0.04700063541531563</v>
+        <v>0.04449307918548584</v>
       </c>
       <c r="AH2">
-        <v>0.2076571136713028</v>
+        <v>0.1992371529340744</v>
       </c>
       <c r="AI2">
-        <v>-0.005532046779990196</v>
+        <v>-0.01460446324199438</v>
       </c>
       <c r="AJ2">
-        <v>0.007182934321463108</v>
+        <v>0.003465868765488267</v>
       </c>
       <c r="AK2">
-        <v>0.002145607257261872</v>
+        <v>0.000345863081747666</v>
       </c>
       <c r="AL2">
-        <v>0.002154610818251967</v>
+        <v>0.001482406863942742</v>
       </c>
       <c r="AM2">
-        <v>0.1053559109568596</v>
+        <v>0.1018365696072578</v>
       </c>
       <c r="AN2">
-        <v>0.09979467839002609</v>
+        <v>0.1011447980999947</v>
       </c>
       <c r="AO2">
-        <v>-0.007322484161704779</v>
+        <v>-0.004957685712724924</v>
       </c>
       <c r="AP2">
-        <v>0.01011911872774363</v>
+        <v>0.01195404585450888</v>
       </c>
       <c r="AQ2">
-        <v>-0.00859235692769289</v>
+        <v>-0.004319152794778347</v>
       </c>
       <c r="AR2">
-        <v>0.06160061433911324</v>
+        <v>0.06254521757364273</v>
       </c>
       <c r="AS2">
-        <v>0.0635121762752533</v>
+        <v>0.0646948516368866</v>
       </c>
       <c r="AT2">
-        <v>0.009721320122480392</v>
+        <v>0.01739429496228695</v>
       </c>
       <c r="AU2">
-        <v>0.01808926835656166</v>
+        <v>0.01950072683393955</v>
       </c>
       <c r="AV2">
-        <v>0.1358641237020493</v>
+        <v>0.1379824280738831</v>
       </c>
       <c r="AW2">
-        <v>0.008613185025751591</v>
+        <v>0.009706636890769005</v>
       </c>
       <c r="AX2">
-        <v>-0.004144493490457535</v>
+        <v>-0.005734071601182222</v>
       </c>
       <c r="AY2">
-        <v>-0.07141882181167603</v>
+        <v>-0.07188928872346878</v>
       </c>
       <c r="AZ2">
-        <v>-0.005663711577653885</v>
+        <v>-0.01484662666916847</v>
       </c>
       <c r="BA2">
-        <v>0.002080766949802637</v>
+        <v>0.007205897476524115</v>
       </c>
       <c r="BB2">
-        <v>0.03208980709314346</v>
+        <v>0.03429393097758293</v>
       </c>
       <c r="BC2">
-        <v>0.003780256025493145</v>
+        <v>-0.000576602469664067</v>
       </c>
       <c r="BD2">
-        <v>-0.1484357565641403</v>
+        <v>-0.146851509809494</v>
       </c>
       <c r="BE2">
-        <v>0.0004197360249236226</v>
+        <v>-0.001006888109259307</v>
       </c>
       <c r="BF2">
-        <v>-0.05343738198280334</v>
+        <v>-0.05214631929993629</v>
       </c>
       <c r="BG2">
-        <v>-0.06859740614891052</v>
+        <v>-0.06693021208047867</v>
       </c>
       <c r="BH2">
-        <v>0.005244062747806311</v>
+        <v>0.009301885031163692</v>
       </c>
       <c r="BI2">
-        <v>0.1541856527328491</v>
+        <v>0.1572041362524033</v>
       </c>
       <c r="BJ2">
-        <v>0.02423818036913872</v>
+        <v>0.02397785149514675</v>
       </c>
       <c r="BK2">
-        <v>0.006676963530480862</v>
+        <v>0.005454022437334061</v>
       </c>
       <c r="BL2">
-        <v>0.01323574967682362</v>
+        <v>0.007249884773045778</v>
       </c>
       <c r="BM2">
-        <v>0.1024413630366325</v>
+        <v>0.1031660810112953</v>
       </c>
       <c r="BN2">
-        <v>0.02209275960922241</v>
+        <v>0.02429293468594551</v>
       </c>
       <c r="BO2">
-        <v>0.05314033478498459</v>
+        <v>0.05799367651343346</v>
       </c>
       <c r="BP2">
-        <v>0.07739352434873581</v>
+        <v>0.07510314881801605</v>
       </c>
       <c r="BQ2">
-        <v>-0.055467888712883</v>
+        <v>-0.05003833025693893</v>
       </c>
       <c r="BR2">
-        <v>0.00431867828592658</v>
+        <v>-0.001970333280041814</v>
       </c>
       <c r="BS2">
-        <v>0.005509810987859964</v>
+        <v>0.001602661795914173</v>
       </c>
       <c r="BT2">
-        <v>0.008307085372507572</v>
+        <v>0.00407040910795331</v>
       </c>
       <c r="BU2">
-        <v>0.003599683521315455</v>
+        <v>0.006523212417960167</v>
       </c>
       <c r="BV2">
-        <v>0.1060076504945755</v>
+        <v>0.10648013651371</v>
       </c>
       <c r="BW2">
-        <v>-0.01336353644728661</v>
+        <v>-0.01032061316072941</v>
       </c>
       <c r="BX2">
-        <v>0.03720231354236603</v>
+        <v>0.0310208722949028</v>
       </c>
       <c r="BY2">
-        <v>-0.00499061169102788</v>
+        <v>-0.006273632403463125</v>
       </c>
       <c r="BZ2">
-        <v>-0.01869972608983517</v>
+        <v>-0.0231044813990593</v>
       </c>
       <c r="CA2">
-        <v>0.02766425721347332</v>
+        <v>0.02755063213407993</v>
       </c>
       <c r="CB2">
-        <v>-0.1024100556969643</v>
+        <v>-0.09547846019268036</v>
       </c>
       <c r="CC2">
-        <v>-0.009499029256403446</v>
+        <v>-0.009605811908841133</v>
       </c>
       <c r="CD2">
-        <v>0.003720544744282961</v>
+        <v>0.007689749822020531</v>
       </c>
       <c r="CE2">
-        <v>0.1761762350797653</v>
+        <v>0.1777338832616806</v>
       </c>
       <c r="CF2">
-        <v>-0.07764986902475357</v>
+        <v>-0.08198664337396622</v>
       </c>
       <c r="CG2">
-        <v>0.1166107580065727</v>
+        <v>0.1131542921066284</v>
       </c>
       <c r="CH2">
-        <v>-0.01097303256392479</v>
+        <v>-0.01334250345826149</v>
       </c>
       <c r="CI2">
-        <v>0.0057049710303545</v>
+        <v>0.00724305585026741</v>
       </c>
       <c r="CJ2">
-        <v>0.1117712035775185</v>
+        <v>0.1139692291617393</v>
       </c>
       <c r="CK2">
-        <v>0.01815375126898289</v>
+        <v>0.01941039599478245</v>
       </c>
       <c r="CL2">
-        <v>-0.001612536492757499</v>
+        <v>-0.003530432004481554</v>
       </c>
       <c r="CM2">
-        <v>0.01377790607511997</v>
+        <v>0.01515243202447891</v>
       </c>
       <c r="CN2">
-        <v>0.006688174791634083</v>
+        <v>-0.0006306862342171371</v>
       </c>
       <c r="CO2">
-        <v>-0.002303307875990868</v>
+        <v>-0.0008430471643805504</v>
       </c>
       <c r="CP2">
-        <v>0.05259453877806664</v>
+        <v>0.05030540376901627</v>
       </c>
       <c r="CQ2">
-        <v>-0.01360664609819651</v>
+        <v>-0.005590914748609066</v>
       </c>
       <c r="CR2">
-        <v>0.00419406546279788</v>
+        <v>0.004167560953646898</v>
       </c>
       <c r="CS2">
-        <v>0.006160104181617498</v>
+        <v>0.009076478891074657</v>
       </c>
       <c r="CT2">
-        <v>0.003349981037899852</v>
+        <v>0.002778303576633334</v>
       </c>
       <c r="CU2">
-        <v>0.007314289920032024</v>
+        <v>0.003002697136253119</v>
       </c>
       <c r="CV2">
-        <v>0.005952898878604174</v>
+        <v>0.004256355576217175</v>
       </c>
       <c r="CW2">
-        <v>-0.0944499745965004</v>
+        <v>-0.09264877438545227</v>
       </c>
       <c r="CX2">
-        <v>0.002780698938295245</v>
+        <v>0.0034859674051404</v>
       </c>
       <c r="CY2">
-        <v>-0.04233138635754585</v>
+        <v>-0.04106804728507996</v>
       </c>
       <c r="CZ2">
-        <v>0.002665668493136764</v>
+        <v>0.001550751272588968</v>
       </c>
       <c r="DA2">
-        <v>-0.09767445921897888</v>
+        <v>-0.09582206606864929</v>
       </c>
       <c r="DB2">
-        <v>-0.007724841590970755</v>
+        <v>-0.007989402860403061</v>
       </c>
       <c r="DC2">
-        <v>0.01090333145111799</v>
+        <v>0.01148986164480448</v>
       </c>
       <c r="DD2">
-        <v>-0.003377922577783465</v>
+        <v>-0.01164606306701899</v>
       </c>
       <c r="DE2">
-        <v>0.002914071083068848</v>
+        <v>0.005183983594179153</v>
       </c>
       <c r="DF2">
-        <v>-0.0003663722018245608</v>
+        <v>-0.007268071174621582</v>
       </c>
       <c r="DG2">
-        <v>0.007384227123111486</v>
+        <v>0.003635420696809888</v>
       </c>
       <c r="DH2">
-        <v>0.05560445412993431</v>
+        <v>0.05406340211629868</v>
       </c>
       <c r="DI2">
-        <v>0.004041386302560568</v>
+        <v>0.001934156171046197</v>
       </c>
       <c r="DJ2">
-        <v>-0.004361169412732124</v>
+        <v>-0.005724036134779453</v>
       </c>
       <c r="DK2">
-        <v>-0.09650449454784393</v>
+        <v>-0.09506449103355408</v>
       </c>
       <c r="DL2">
-        <v>-0.1113286763429642</v>
+        <v>-0.1093918308615685</v>
       </c>
       <c r="DM2">
-        <v>0.09499765932559967</v>
+        <v>0.09599028527736664</v>
       </c>
       <c r="DN2">
-        <v>0.05366383492946625</v>
+        <v>0.05473481118679047</v>
       </c>
       <c r="DO2">
-        <v>-0.005810599308460951</v>
+        <v>-0.004864287097007036</v>
       </c>
       <c r="DP2">
-        <v>-0.01270167622715235</v>
+        <v>-0.01609516888856888</v>
       </c>
       <c r="DQ2">
-        <v>0.003562428755685687</v>
+        <v>0.004379645921289921</v>
       </c>
       <c r="DR2">
-        <v>0.009017747826874256</v>
+        <v>0.006185888778418303</v>
       </c>
       <c r="DS2">
-        <v>0.03482365608215332</v>
+        <v>0.03926113247871399</v>
       </c>
       <c r="DT2">
-        <v>0.003250106237828732</v>
+        <v>0.006719319615513086</v>
       </c>
       <c r="DU2">
-        <v>0.09722276777029037</v>
+        <v>0.09509097039699554</v>
       </c>
       <c r="DV2">
-        <v>0.004642147105187178</v>
+        <v>0.001979865366593003</v>
       </c>
       <c r="DW2">
-        <v>-0.0002318298647878692</v>
+        <v>0.007813866250216961</v>
       </c>
       <c r="DX2">
-        <v>0.05502116307616234</v>
+        <v>0.05561186000704765</v>
       </c>
       <c r="DY2">
-        <v>-0.00754478806629777</v>
+        <v>-0.004367714282125235</v>
       </c>
       <c r="DZ2">
-        <v>0.007211455143988132</v>
+        <v>0.009929236024618149</v>
       </c>
       <c r="EA2">
-        <v>0.04511520266532898</v>
+        <v>0.04594956710934639</v>
       </c>
       <c r="EB2">
-        <v>0.1157191172242165</v>
+        <v>0.1168427690863609</v>
       </c>
       <c r="EC2">
-        <v>-0.0005703864735551178</v>
+        <v>0.005253331270068884</v>
       </c>
       <c r="ED2">
-        <v>0.1153832226991653</v>
+        <v>0.1163687109947205</v>
       </c>
       <c r="EE2">
-        <v>-0.01468263287097216</v>
+        <v>-0.01259885635226965</v>
       </c>
       <c r="EF2">
-        <v>0.03181372582912445</v>
+        <v>0.02591777592897415</v>
       </c>
       <c r="EG2">
-        <v>0.01078277267515659</v>
+        <v>0.007746097631752491</v>
       </c>
       <c r="EH2">
-        <v>0.09641347825527191</v>
+        <v>0.09545598179101944</v>
       </c>
       <c r="EI2">
-        <v>-0.1673729866743088</v>
+        <v>-0.1699379533529282</v>
       </c>
       <c r="EJ2">
-        <v>-0.04491445794701576</v>
+        <v>-0.04248301684856415</v>
       </c>
       <c r="EK2">
-        <v>-0.006535344291478395</v>
+        <v>-0.007965113967657089</v>
       </c>
       <c r="EL2">
-        <v>0.0003084491763729602</v>
+        <v>0.001452702679671347</v>
       </c>
       <c r="EM2">
-        <v>0.07411407679319382</v>
+        <v>0.07393363118171692</v>
       </c>
       <c r="EN2">
-        <v>-0.1212823167443275</v>
+        <v>-0.120070569217205</v>
       </c>
       <c r="EO2">
-        <v>0.04076547175645828</v>
+        <v>0.0378740020096302</v>
       </c>
       <c r="EP2">
-        <v>0.07765535265207291</v>
+        <v>0.07444886863231659</v>
       </c>
       <c r="EQ2">
-        <v>0.02133948355913162</v>
+        <v>0.02798272855579853</v>
       </c>
       <c r="ER2">
-        <v>0.0004336701240390539</v>
+        <v>0.002041774336248636</v>
       </c>
       <c r="ES2">
-        <v>-0.0007505927351303399</v>
+        <v>-0.006040595471858978</v>
       </c>
       <c r="ET2">
-        <v>0.05067460238933563</v>
+        <v>0.04737066850066185</v>
       </c>
       <c r="EU2">
-        <v>-0.01098519098013639</v>
+        <v>-0.00683317705988884</v>
       </c>
       <c r="EV2">
-        <v>-0.08599552512168884</v>
+        <v>-0.08441493660211563</v>
       </c>
       <c r="EW2">
-        <v>0.07216094434261322</v>
+        <v>0.07303350418806076</v>
       </c>
       <c r="EX2">
-        <v>0.07885153591632843</v>
+        <v>0.08292753249406815</v>
       </c>
       <c r="EY2">
-        <v>0.00742271775379777</v>
+        <v>0.009364720433950424</v>
       </c>
       <c r="EZ2">
-        <v>-0.07028208673000336</v>
+        <v>-0.07208734005689621</v>
       </c>
       <c r="FA2">
-        <v>0.004884852096438408</v>
+        <v>0.005522369872778654</v>
       </c>
       <c r="FB2">
-        <v>-0.003464927431195974</v>
+        <v>-0.002253685379400849</v>
       </c>
       <c r="FC2">
-        <v>-0.04241158440709114</v>
+        <v>-0.04387639835476875</v>
       </c>
       <c r="FD2">
-        <v>-0.005767334718257189</v>
+        <v>-0.008678861893713474</v>
       </c>
       <c r="FE2">
-        <v>0.05687607079744339</v>
+        <v>0.0591202899813652</v>
       </c>
       <c r="FF2">
-        <v>0.04392120242118835</v>
+        <v>0.0485512912273407</v>
       </c>
       <c r="FG2">
-        <v>0.06861584633588791</v>
+        <v>0.06608134508132935</v>
       </c>
       <c r="FH2">
-        <v>-0.003059285692870617</v>
+        <v>0.001722736400552094</v>
       </c>
       <c r="FI2">
-        <v>0.05578974634408951</v>
+        <v>0.05806487053632736</v>
       </c>
       <c r="FJ2">
-        <v>-0.03051191568374634</v>
+        <v>-0.03701167926192284</v>
       </c>
       <c r="FK2">
-        <v>0.07106313854455948</v>
+        <v>0.0804186686873436</v>
       </c>
       <c r="FL2">
-        <v>-0.1077906414866447</v>
+        <v>-0.1079657450318336</v>
       </c>
       <c r="FM2">
-        <v>0.03029164858162403</v>
+        <v>0.02985725551843643</v>
       </c>
       <c r="FN2">
-        <v>0.0137922428548336</v>
+        <v>0.006810317747294903</v>
       </c>
       <c r="FO2">
-        <v>-0.007841859012842178</v>
+        <v>-0.008899037726223469</v>
       </c>
       <c r="FP2">
-        <v>-0.001306251971982419</v>
+        <v>0.003665386699140072</v>
       </c>
       <c r="FQ2">
-        <v>-0.00306481309235096</v>
+        <v>-0.001896005589514971</v>
       </c>
       <c r="FR2">
-        <v>-0.004171793814748526</v>
+        <v>-0.003778029466047883</v>
       </c>
       <c r="FS2">
-        <v>0.007277903612703085</v>
+        <v>0.006214943714439869</v>
       </c>
       <c r="FT2">
-        <v>-0.003734888276085258</v>
+        <v>-0.003497811499983072</v>
       </c>
       <c r="FU2">
-        <v>-0.1230586245656013</v>
+        <v>-0.1214996576309204</v>
       </c>
       <c r="FV2">
-        <v>-0.01703011058270931</v>
+        <v>-0.01455391105264425</v>
       </c>
       <c r="FW2">
-        <v>0.04098189994692802</v>
+        <v>0.04329284280538559</v>
       </c>
       <c r="FX2">
-        <v>-0.0009694707696326077</v>
+        <v>0.0005124491290189326</v>
       </c>
       <c r="FY2">
-        <v>-0.006921144668012857</v>
+        <v>-0.0008926989394240081</v>
       </c>
       <c r="FZ2">
-        <v>0.001951190759427845</v>
+        <v>-0.002753966487944126</v>
       </c>
       <c r="GA2">
-        <v>0.02504759840667248</v>
+        <v>0.02205889113247395</v>
       </c>
       <c r="GB2">
-        <v>0.003234351752325892</v>
+        <v>9.375544323120266E-05</v>
       </c>
       <c r="GC2">
-        <v>-0.07718301564455032</v>
+        <v>-0.07135944068431854</v>
       </c>
       <c r="GD2">
-        <v>0.06377410888671875</v>
+        <v>0.07282498478889465</v>
       </c>
       <c r="GE2">
-        <v>0.006297524552792311</v>
+        <v>0.006357305217534304</v>
       </c>
       <c r="GF2">
-        <v>-0.02375567145645618</v>
+        <v>-0.02478605322539806</v>
       </c>
       <c r="GG2">
-        <v>0.03483399376273155</v>
+        <v>0.03041074238717556</v>
       </c>
       <c r="GH2">
-        <v>-0.007848098874092102</v>
+        <v>-0.005823456682264805</v>
       </c>
       <c r="GI2">
-        <v>0.08709649741649628</v>
+        <v>0.07914949208498001</v>
       </c>
       <c r="GJ2">
-        <v>-0.006738157477229834</v>
+        <v>-0.003343654796481133</v>
       </c>
       <c r="GK2">
-        <v>-0.06445404887199402</v>
+        <v>-0.06923907995223999</v>
       </c>
       <c r="GL2">
-        <v>-0.1253485083580017</v>
+        <v>-0.1274119913578033</v>
       </c>
       <c r="GM2">
-        <v>-0.06512610614299774</v>
+        <v>-0.06573669612407684</v>
       </c>
       <c r="GN2">
-        <v>-0.04036685451865196</v>
+        <v>-0.04214642196893692</v>
       </c>
       <c r="GO2">
-        <v>0.04690654575824738</v>
+        <v>0.04596731066703796</v>
       </c>
       <c r="GP2">
-        <v>-0.07069807499647141</v>
+        <v>-0.07014518231153488</v>
       </c>
       <c r="GQ2">
-        <v>-0.01019115932285786</v>
+        <v>-0.006966953165829182</v>
       </c>
       <c r="GR2">
-        <v>-0.01504069473594427</v>
+        <v>-0.01371290627866983</v>
       </c>
       <c r="GS2">
-        <v>-0.02778343856334686</v>
+        <v>-0.02752117067575455</v>
       </c>
       <c r="GT2">
-        <v>0.00213833968155086</v>
+        <v>0.003407932352274656</v>
       </c>
       <c r="GU2">
-        <v>0.009008707478642464</v>
+        <v>0.008487214334309101</v>
       </c>
       <c r="GV2">
-        <v>0.002484450116753578</v>
+        <v>0.0007283481536433101</v>
       </c>
       <c r="GW2">
-        <v>-0.00167633150704205</v>
+        <v>-0.005691185593605042</v>
       </c>
       <c r="GX2">
-        <v>-0.006206993013620377</v>
+        <v>-0.004396382719278336</v>
       </c>
       <c r="GY2">
-        <v>-0.003481804393231869</v>
+        <v>-0.0020657645072788</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Commodities.xlsx
+++ b/static/Models/Regression/Equation/Commodities.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01245158351957798</v>
+        <v>-0.007217935286462307</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.002804410411044955</v>
+        <v>-0.003116038162261248</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1035024598240852</v>
+        <v>0.1108193919062614</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03356438875198364</v>
+        <v>-0.03775680437684059</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002199338050559163</v>
+        <v>0.005092581734061241</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01600085943937302</v>
+        <v>-0.01209727860987186</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001324354554526508</v>
+        <v>-0.004077794961631298</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01268742326647043</v>
+        <v>0.01746740937232971</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1754733920097351</v>
+        <v>0.1815800368785858</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00962540041655302</v>
+        <v>0.003353657433763146</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007835166528820992</v>
+        <v>0.01292797084897757</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0009693827596493065</v>
+        <v>0.0005306453676894307</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.006582462228834629</v>
+        <v>-0.0005776687758043408</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02618888206779957</v>
+        <v>-0.02789284102618694</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04970032349228859</v>
+        <v>0.05181066691875458</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06561862677335739</v>
+        <v>0.07122340053319931</v>
       </c>
       <c r="R2" t="n">
-        <v>0.005491148214787245</v>
+        <v>0.01027233526110649</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.01842508465051651</v>
+        <v>-0.01848885603249073</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.062625452876091</v>
+        <v>-0.06692909449338913</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.05911079794168472</v>
+        <v>-0.05402864888310432</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.001620074384845793</v>
+        <v>0.0002322828659089282</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08419501036405563</v>
+        <v>0.08900098502635956</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.01007591653615236</v>
+        <v>-0.00183437205851078</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.003103982657194138</v>
+        <v>0.007172198500484228</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.01223526243120432</v>
+        <v>-0.01484204083681107</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.01188427116721869</v>
+        <v>-0.009153958410024643</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03317565470933914</v>
+        <v>0.02548026852309704</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01533488743007183</v>
+        <v>0.01783469878137112</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.04360391199588776</v>
+        <v>0.04431234300136566</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.07941343635320663</v>
+        <v>-0.08758983016014099</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.006718084216117859</v>
+        <v>0.003313996363431215</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.04524030908942223</v>
+        <v>0.04826027527451515</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.2013950645923615</v>
+        <v>0.2065120339393616</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.009503116831183434</v>
+        <v>-0.00950902234762907</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0006875281687825918</v>
+        <v>0.003754844656214118</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.001538337208330631</v>
+        <v>0.0007873094873502851</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.0005932642961852252</v>
+        <v>-0.004069408867508173</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.09931956976652145</v>
+        <v>0.09564385563135147</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1045383214950562</v>
+        <v>0.1027887836098671</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.00492981867864728</v>
+        <v>0.001119948225095868</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0149588892236352</v>
+        <v>0.009961665607988834</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.006712194997817278</v>
+        <v>-0.0001138167062890716</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.05542778596282005</v>
+        <v>0.0619281567633152</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.06867966055870056</v>
+        <v>0.06483681499958038</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01603444293141365</v>
+        <v>0.008097149431705475</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.01613101176917553</v>
+        <v>0.01058327965438366</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1400646418333054</v>
+        <v>0.1355648040771484</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.009882641024887562</v>
+        <v>0.008910112082958221</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.002817238448187709</v>
+        <v>-0.002905015600845218</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.07218576222658157</v>
+        <v>-0.06554438173770905</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.01775816269218922</v>
+        <v>-0.02290150709450245</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.007096061483025551</v>
+        <v>0.004281298723071814</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.04130012914538383</v>
+        <v>0.03235787153244019</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.002610793337225914</v>
+        <v>-0.008260802365839481</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.1467981934547424</v>
+        <v>-0.1466147899627686</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.0005935892113484442</v>
+        <v>-0.004891666118055582</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.04938871785998344</v>
+        <v>-0.05512820556759834</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.06723138689994812</v>
+        <v>-0.06567736715078354</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.005910563282668591</v>
+        <v>-0.002238593297079206</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.1569561064243317</v>
+        <v>0.1555261611938477</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.02272865362465382</v>
+        <v>0.01885777339339256</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.008133929222822189</v>
+        <v>0.009285846725106239</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.009309406392276287</v>
+        <v>0.01523504033684731</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.103813536465168</v>
+        <v>0.09712044894695282</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.02916380204260349</v>
+        <v>0.03406140580773354</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.05882182344794273</v>
+        <v>0.062631756067276</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.07400918006896973</v>
+        <v>0.06902259588241577</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.04903491958975792</v>
+        <v>-0.0525597520172596</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.004569031298160553</v>
+        <v>-0.001312114181928337</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0005021694232709706</v>
+        <v>0.008779139257967472</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.004970730282366276</v>
+        <v>0.006771662272512913</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.006142472382634878</v>
+        <v>0.009092698805034161</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.1044129729270935</v>
+        <v>0.1075082123279572</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.00754458224400878</v>
+        <v>-0.006716686300933361</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0338137298822403</v>
+        <v>0.03961933776736259</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.003476305399090052</v>
+        <v>-0.008560112677514553</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.02034678868949413</v>
+        <v>-0.01471258513629436</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.02462857961654663</v>
+        <v>0.02016423456370831</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.09467252343893051</v>
+        <v>-0.08742185682058334</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.008994088508188725</v>
+        <v>-0.004150077234953642</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.005010840948671103</v>
+        <v>-0.002478482900187373</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.1777185052633286</v>
+        <v>0.1836947798728943</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.07850484549999237</v>
+        <v>-0.07374967634677887</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.1175040677189827</v>
+        <v>0.1196038201451302</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.01471156068146229</v>
+        <v>-0.01066242624074221</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.007120325695723295</v>
+        <v>0.009643889963626862</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.1144186407327652</v>
+        <v>0.1144190430641174</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.01856381259858608</v>
+        <v>0.0189813356846571</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.001809290493838489</v>
+        <v>0.002394511131569743</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0152590898796916</v>
+        <v>0.01572984270751476</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.001640456961467862</v>
+        <v>-0.002394325099885464</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.002133588306605816</v>
+        <v>-0.00493136839941144</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.05498738586902618</v>
+        <v>0.05495694279670715</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.00486441608518362</v>
+        <v>-0.008030453696846962</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.004772170446813107</v>
+        <v>0.0004702305013779551</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.009255905635654926</v>
+        <v>0.007265894673764706</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.003623938886448741</v>
+        <v>0.008010667748749256</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.003074847627431154</v>
+        <v>-0.005377248395234346</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.0003379816189408302</v>
+        <v>0.004945257678627968</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.08765149116516113</v>
+        <v>-0.09271757304668427</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.006749735213816166</v>
+        <v>0.002022021682932973</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.04154466837644577</v>
+        <v>-0.04330446943640709</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.003562058322131634</v>
+        <v>0.00528408121317625</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.09245502203702927</v>
+        <v>-0.09144289791584015</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.009446525014936924</v>
+        <v>-0.01283847633749247</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.007438454311341047</v>
+        <v>0.01110974978655577</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.008391443639993668</v>
+        <v>-0.00316692260093987</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.005447192117571831</v>
+        <v>0.004153610672801733</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.005344672594219446</v>
+        <v>-0.006949846632778645</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.005525980144739151</v>
+        <v>0.00245866016484797</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0543539859354496</v>
+        <v>0.06089922785758972</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.000536810839548707</v>
+        <v>0.003855085931718349</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.008091980591416359</v>
+        <v>-0.0007036459865048528</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.09731406718492508</v>
+        <v>-0.09596368670463562</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.1058200374245644</v>
+        <v>-0.1064790263772011</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.09983331710100174</v>
+        <v>0.09954872727394104</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.05426917970180511</v>
+        <v>0.05566916614770889</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.004993606824427843</v>
+        <v>-0.01128582656383514</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.01375776249915361</v>
+        <v>-0.008205347694456577</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.004077134188264608</v>
+        <v>0.008042742498219013</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.004067501053214073</v>
+        <v>0.009912285022437572</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.03857137635350227</v>
+        <v>0.0460364930331707</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.01057255826890469</v>
+        <v>0.01568038575351238</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.09880407154560089</v>
+        <v>0.09993056207895279</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.003659699810668826</v>
+        <v>-0.005532574839890003</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.01082684192806482</v>
+        <v>0.00792836956679821</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.05521849170327187</v>
+        <v>0.05578087270259857</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.001985730137676001</v>
+        <v>-0.003271509660407901</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.01477252226322889</v>
+        <v>0.01344780996441841</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.04127360880374908</v>
+        <v>0.04119383543729782</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.1166312098503113</v>
+        <v>0.1191035956144333</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.006040874868631363</v>
+        <v>0.008179784752428532</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.1153275817632675</v>
+        <v>0.111664243042469</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.0129540953785181</v>
+        <v>-0.01252338103950024</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.02755675837397575</v>
+        <v>0.03509997576475143</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.002251046244055033</v>
+        <v>-0.004959281533956528</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.09757549315690994</v>
+        <v>0.1021080911159515</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.1672406941652298</v>
+        <v>-0.161454826593399</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.04521774873137474</v>
+        <v>-0.03756082430481911</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.007276444230228662</v>
+        <v>-0.007206470239907503</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0003955135471187532</v>
+        <v>-0.001914679538458586</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.06904509663581848</v>
+        <v>0.06531098484992981</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.1193569451570511</v>
+        <v>-0.1205811500549316</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.03603463247418404</v>
+        <v>0.03631552308797836</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.07813563197851181</v>
+        <v>0.07329042255878448</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.02234681323170662</v>
+        <v>0.02903047576546669</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0004453161673154682</v>
+        <v>0.008038740605115891</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.002948940498754382</v>
+        <v>0.001966825686395168</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.04345469176769257</v>
+        <v>0.03885446861386299</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.005131113808602095</v>
+        <v>-0.0008038340019993484</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.08543582260608673</v>
+        <v>-0.08151537925004959</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.06525740772485733</v>
+        <v>0.07203880697488785</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.08151065558195114</v>
+        <v>0.08542567491531372</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.008255062624812126</v>
+        <v>0.006620402913540602</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.07484372705221176</v>
+        <v>-0.06584732979536057</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.007202479057013988</v>
+        <v>0.0003342506533954293</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.001855057198554277</v>
+        <v>-0.003032349748536944</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.03950429707765579</v>
+        <v>-0.04166724160313606</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.006560203619301319</v>
+        <v>-0.002875677309930325</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.05792351812124252</v>
+        <v>0.06589940190315247</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.05120472609996796</v>
+        <v>0.04596519842743874</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.06665576994419098</v>
+        <v>0.07206995040178299</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.002758163493126631</v>
+        <v>0.002491357503458858</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.06063780561089516</v>
+        <v>0.06738666445016861</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.04095455259084702</v>
+        <v>-0.04706180095672607</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.08440456539392471</v>
+        <v>0.09292792528867722</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.1100011914968491</v>
+        <v>-0.1137600392103195</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.02958151884377003</v>
+        <v>0.02473654225468636</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.008896674960851669</v>
+        <v>0.01457383017987013</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.009026841260492802</v>
+        <v>-0.006255026906728745</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.006137136369943619</v>
+        <v>0.0004130199085921049</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.003244509920477867</v>
+        <v>-0.006286081857979298</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.003687676042318344</v>
+        <v>-0.0007148552103899419</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.007523618172854185</v>
+        <v>0.01236654166132212</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.005239756777882576</v>
+        <v>-0.008152967318892479</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.1225059181451797</v>
+        <v>-0.1254426538944244</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.01525247190147638</v>
+        <v>-0.01412589009851217</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.04312412813305855</v>
+        <v>0.04519710689783096</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.0008573671220801771</v>
+        <v>0.004604389425367117</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.002034725854173303</v>
+        <v>0.0009535372955724597</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.001306444290094078</v>
+        <v>0.006117051001638174</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02319633029401302</v>
+        <v>0.02388573996722698</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.0007712144288234413</v>
+        <v>0.006509879138320684</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.07217630743980408</v>
+        <v>-0.06790732592344284</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.07402969896793365</v>
+        <v>0.06755165755748749</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.005465410649776459</v>
+        <v>0.004093251191079617</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.02280771732330322</v>
+        <v>-0.01754001155495644</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.03170923888683319</v>
+        <v>0.03303395584225655</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.0006919107981957495</v>
+        <v>-0.003617931390181184</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.08094587177038193</v>
+        <v>0.0718965008854866</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.00285593350417912</v>
+        <v>-0.005228729452937841</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.06826625764369965</v>
+        <v>-0.0646941214799881</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.1295667290687561</v>
+        <v>-0.1267815828323364</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.0654456615447998</v>
+        <v>-0.05906176567077637</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.03866541385650635</v>
+        <v>-0.04195826500654221</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.04231933876872063</v>
+        <v>0.04772795736789703</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.06934894621372223</v>
+        <v>-0.06615646183490753</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.009786952286958694</v>
+        <v>-0.002896328689530492</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.00627561379224062</v>
+        <v>-0.002282470464706421</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.02585389651358128</v>
+        <v>-0.0194129440933466</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.002233623526990414</v>
+        <v>-0.004196144174784422</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.008746683597564697</v>
+        <v>0.006079075857996941</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.002527622506022453</v>
+        <v>0.0003347804595250636</v>
       </c>
       <c r="GW2" t="n">
-        <v>-0.005586098413914442</v>
+        <v>-0.01530430093407631</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.00594710186123848</v>
+        <v>-0.009448632597923279</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.002581812208518386</v>
+        <v>-0.00288531044498086</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Commodities.xlsx
+++ b/static/Models/Regression/Equation/Commodities.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.007217935286462307</v>
+        <v>-0.01271504443138838</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.003116038162261248</v>
+        <v>-0.00960765965282917</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1108193919062614</v>
+        <v>0.1199462860822678</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03775680437684059</v>
+        <v>-0.04888134077191353</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005092581734061241</v>
+        <v>0.006044326350092888</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01209727860987186</v>
+        <v>-0.01425253041088581</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.004077794961631298</v>
+        <v>0.008083253167569637</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01746740937232971</v>
+        <v>0.0155843161046505</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1815800368785858</v>
+        <v>0.188093438744545</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003353657433763146</v>
+        <v>0.0006172741996124387</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01292797084897757</v>
+        <v>0.005990921054035425</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005306453676894307</v>
+        <v>0.00499578844755888</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0005776687758043408</v>
+        <v>0.0002154659159714356</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02789284102618694</v>
+        <v>-0.01776658184826374</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05181066691875458</v>
+        <v>0.05563785135746002</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07122340053319931</v>
+        <v>0.06783419847488403</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01027233526110649</v>
+        <v>-0.0005739569314755499</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.01848885603249073</v>
+        <v>-0.01130865793675184</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.06692909449338913</v>
+        <v>-0.06250948458909988</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.05402864888310432</v>
+        <v>-0.04453819990158081</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0002322828659089282</v>
+        <v>-0.0008235239656642079</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08900098502635956</v>
+        <v>0.09310470521450043</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.00183437205851078</v>
+        <v>-0.01000608038157225</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.007172198500484228</v>
+        <v>0.004324671812355518</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.01484204083681107</v>
+        <v>-0.006290345918387175</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.009153958410024643</v>
+        <v>-0.01152487751096487</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02548026852309704</v>
+        <v>0.02397426217794418</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01783469878137112</v>
+        <v>0.02217176370322704</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.04431234300136566</v>
+        <v>0.04630149528384209</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.08758983016014099</v>
+        <v>-0.08053857088088989</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.003313996363431215</v>
+        <v>0.003639488946646452</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.04826027527451515</v>
+        <v>0.04156231507658958</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.2065120339393616</v>
+        <v>0.2103071957826614</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.00950902234762907</v>
+        <v>-0.004485239274799824</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.003754844656214118</v>
+        <v>0.01221456471830606</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0007873094873502851</v>
+        <v>-0.002476917579770088</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.004069408867508173</v>
+        <v>0.001088602817617357</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.09564385563135147</v>
+        <v>0.09285391867160797</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1027887836098671</v>
+        <v>0.0911063626408577</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.001119948225095868</v>
+        <v>0.002759636612609029</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.009961665607988834</v>
+        <v>0.001962936948984861</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0001138167062890716</v>
+        <v>0.01138510182499886</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0619281567633152</v>
+        <v>0.05356292054057121</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.06483681499958038</v>
+        <v>0.05262723937630653</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.008097149431705475</v>
+        <v>-0.001205366919748485</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.01058327965438366</v>
+        <v>0.003775177290663123</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1355648040771484</v>
+        <v>0.1298169195652008</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.008910112082958221</v>
+        <v>0.002982831327244639</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.002905015600845218</v>
+        <v>0.00214848667383194</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.06554438173770905</v>
+        <v>-0.06108593568205833</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.02290150709450245</v>
+        <v>-0.01237276941537857</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.004281298723071814</v>
+        <v>-0.005976423621177673</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.03235787153244019</v>
+        <v>0.021504957228899</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.008260802365839481</v>
+        <v>0.001119732158258557</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.1466147899627686</v>
+        <v>-0.1434687972068787</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.004891666118055582</v>
+        <v>0.002935047959908843</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.05512820556759834</v>
+        <v>-0.06580270081758499</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.06567736715078354</v>
+        <v>-0.06625783443450928</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.002238593297079206</v>
+        <v>0.006800031289458275</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.1555261611938477</v>
+        <v>0.1631091982126236</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.01885777339339256</v>
+        <v>0.02495329827070236</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.009285846725106239</v>
+        <v>0.008974396623671055</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.01523504033684731</v>
+        <v>0.009575131349265575</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.09712044894695282</v>
+        <v>0.1046465933322906</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.03406140580773354</v>
+        <v>0.03293975442647934</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.062631756067276</v>
+        <v>0.05820062756538391</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.06902259588241577</v>
+        <v>0.06098254397511482</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.0525597520172596</v>
+        <v>-0.04517447203397751</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.001312114181928337</v>
+        <v>0.003411069512367249</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.008779139257967472</v>
+        <v>0.009923270903527737</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.006771662272512913</v>
+        <v>0.002256248611956835</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.009092698805034161</v>
+        <v>0.005482129286974669</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.1075082123279572</v>
+        <v>0.1127374842762947</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.006716686300933361</v>
+        <v>-0.01564690470695496</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.03961933776736259</v>
+        <v>0.04628116264939308</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.008560112677514553</v>
+        <v>-0.000800302077550441</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.01471258513629436</v>
+        <v>-0.008352650329470634</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.02016423456370831</v>
+        <v>0.01386918220669031</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.08742185682058334</v>
+        <v>-0.08775210380554199</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.004150077234953642</v>
+        <v>-0.007530136033892632</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.002478482900187373</v>
+        <v>-0.005425222683697939</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.1836947798728943</v>
+        <v>0.1844963133335114</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.07374967634677887</v>
+        <v>-0.06747336685657501</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.1196038201451302</v>
+        <v>0.1206493899226189</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.01066242624074221</v>
+        <v>-0.002950074849650264</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.009643889963626862</v>
+        <v>0.01039334200322628</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.1144190430641174</v>
+        <v>0.1060408055782318</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0189813356846571</v>
+        <v>0.01451369933784008</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.002394511131569743</v>
+        <v>-0.001399978413246572</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.01572984270751476</v>
+        <v>0.01309066265821457</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.002394325099885464</v>
+        <v>0.001593480468727648</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.00493136839941144</v>
+        <v>-0.002285229740664363</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.05495694279670715</v>
+        <v>0.04392531886696815</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.008030453696846962</v>
+        <v>-0.01819721981883049</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0004702305013779551</v>
+        <v>0.008703671395778656</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.007265894673764706</v>
+        <v>0.005759978666901588</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.008010667748749256</v>
+        <v>0.005699020344763994</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.005377248395234346</v>
+        <v>-0.004453908186405897</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.004945257678627968</v>
+        <v>0.006698847748339176</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.09271757304668427</v>
+        <v>-0.09533300250768661</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.002022021682932973</v>
+        <v>-0.004321106243878603</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.04330446943640709</v>
+        <v>-0.05015357956290245</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00528408121317625</v>
+        <v>0.01068124733865261</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.09144289791584015</v>
+        <v>-0.08752637356519699</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.01283847633749247</v>
+        <v>-0.008613213896751404</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.01110974978655577</v>
+        <v>0.01027623005211353</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.00316692260093987</v>
+        <v>0.003718704218044877</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.004153610672801733</v>
+        <v>0.004137447103857994</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.006949846632778645</v>
+        <v>-0.01643339917063713</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.00245866016484797</v>
+        <v>0.008382502011954784</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.06089922785758972</v>
+        <v>0.07086507976055145</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.003855085931718349</v>
+        <v>0.004482213407754898</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.0007036459865048528</v>
+        <v>0.007626580540090799</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.09596368670463562</v>
+        <v>-0.1048237532377243</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.1064790263772011</v>
+        <v>-0.1130534708499908</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.09954872727394104</v>
+        <v>0.09434481710195541</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.05566916614770889</v>
+        <v>0.05420264601707458</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.01128582656383514</v>
+        <v>-0.007297726348042488</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.008205347694456577</v>
+        <v>-0.007417690474539995</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.008042742498219013</v>
+        <v>0.009754783473908901</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.009912285022437572</v>
+        <v>8.604745380580425e-05</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0460364930331707</v>
+        <v>0.04092000052332878</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.01568038575351238</v>
+        <v>0.01856148801743984</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.09993056207895279</v>
+        <v>0.09579054266214371</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.005532574839890003</v>
+        <v>-0.007826232351362705</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.00792836956679821</v>
+        <v>0.01698157005012035</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.05578087270259857</v>
+        <v>0.05490463972091675</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.003271509660407901</v>
+        <v>-0.00709484051913023</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.01344780996441841</v>
+        <v>0.02224329300224781</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.04119383543729782</v>
+        <v>0.03505168110132217</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.1191035956144333</v>
+        <v>0.1200597807765007</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.008179784752428532</v>
+        <v>0.009873267263174057</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.111664243042469</v>
+        <v>0.1180752068758011</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.01252338103950024</v>
+        <v>-0.0130158057436347</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.03509997576475143</v>
+        <v>0.0297170951962471</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.004959281533956528</v>
+        <v>-0.002648983616381884</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.1021080911159515</v>
+        <v>0.1113588437438011</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.161454826593399</v>
+        <v>-0.1551390439271927</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.03756082430481911</v>
+        <v>-0.0428876057267189</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.007206470239907503</v>
+        <v>-0.009786116890609264</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.001914679538458586</v>
+        <v>-0.0002832174650393426</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.06531098484992981</v>
+        <v>0.05208242684602737</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.1205811500549316</v>
+        <v>-0.1291240155696869</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.03631552308797836</v>
+        <v>0.03618307411670685</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.07329042255878448</v>
+        <v>0.08205582946538925</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.02903047576546669</v>
+        <v>0.04164731130003929</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.008038740605115891</v>
+        <v>0.006486673839390278</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.001966825686395168</v>
+        <v>0.002225532196462154</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.03885446861386299</v>
+        <v>0.0467405803501606</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.0008038340019993484</v>
+        <v>-0.007415904197841883</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.08151537925004959</v>
+        <v>-0.07107175886631012</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.07203880697488785</v>
+        <v>0.08011389523744583</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.08542567491531372</v>
+        <v>0.09211800247430801</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.006620402913540602</v>
+        <v>0.00882999412715435</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.06584732979536057</v>
+        <v>-0.05614171549677849</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0003342506533954293</v>
+        <v>-0.006793050561100245</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.003032349748536944</v>
+        <v>-0.003118078922852874</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.04166724160313606</v>
+        <v>-0.0328228548169136</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.002875677309930325</v>
+        <v>0.002084629377350211</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.06589940190315247</v>
+        <v>0.05999576300382614</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.04596519842743874</v>
+        <v>0.03577446192502975</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.07206995040178299</v>
+        <v>0.080950066447258</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.002491357503458858</v>
+        <v>0.002369003836065531</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.06738666445016861</v>
+        <v>0.05909175798296928</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.04706180095672607</v>
+        <v>-0.04642438143491745</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.09292792528867722</v>
+        <v>0.09511474519968033</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.1137600392103195</v>
+        <v>-0.126357689499855</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.02473654225468636</v>
+        <v>0.0171824749559164</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.01457383017987013</v>
+        <v>0.009286282584071159</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.006255026906728745</v>
+        <v>-0.001233609742484987</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0004130199085921049</v>
+        <v>0.008676407858729362</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.006286081857979298</v>
+        <v>-0.00311030843295157</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.0007148552103899419</v>
+        <v>0.0005450607277452946</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.01236654166132212</v>
+        <v>0.00985115859657526</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.008152967318892479</v>
+        <v>-0.006936969235539436</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.1254426538944244</v>
+        <v>-0.118243120610714</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.01412589009851217</v>
+        <v>-0.0181807279586792</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.04519710689783096</v>
+        <v>0.05273052677512169</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.004604389425367117</v>
+        <v>0.00146949989721179</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0009535372955724597</v>
+        <v>0.006603448651731014</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.006117051001638174</v>
+        <v>0.005009840242564678</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02388573996722698</v>
+        <v>0.02383567951619625</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.006509879138320684</v>
+        <v>0.008726926520466805</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.06790732592344284</v>
+        <v>-0.06128923967480659</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.06755165755748749</v>
+        <v>0.06965599954128265</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.004093251191079617</v>
+        <v>0.003753708442673087</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.01754001155495644</v>
+        <v>-0.00583658367395401</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.03303395584225655</v>
+        <v>0.04260599613189697</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.003617931390181184</v>
+        <v>-0.01319680456072092</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.0718965008854866</v>
+        <v>0.07702505588531494</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.005228729452937841</v>
+        <v>-0.005423035938292742</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.0646941214799881</v>
+        <v>-0.05726348608732224</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.1267815828323364</v>
+        <v>-0.1295051574707031</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.05906176567077637</v>
+        <v>-0.06641341745853424</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.04195826500654221</v>
+        <v>-0.0417405292391777</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.04772795736789703</v>
+        <v>0.05215170606970787</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.06615646183490753</v>
+        <v>-0.06663286685943604</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.002896328689530492</v>
+        <v>-0.00608103908598423</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.002282470464706421</v>
+        <v>-0.009460472501814365</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.0194129440933466</v>
+        <v>-0.0151599757373333</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.004196144174784422</v>
+        <v>-2.072886445603217e-06</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.006079075857996941</v>
+        <v>0.001474107964895666</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.0003347804595250636</v>
+        <v>0.004404865670949221</v>
       </c>
       <c r="GW2" t="n">
-        <v>-0.01530430093407631</v>
+        <v>-0.01126395910978317</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.009448632597923279</v>
+        <v>-0.004687576554715633</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.00288531044498086</v>
+        <v>-0.003964828327298164</v>
       </c>
     </row>
   </sheetData>
